--- a/tests/sample_files/ts_downloaded_maps.xlsx
+++ b/tests/sample_files/ts_downloaded_maps.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwood/LwM/MapReader/tests/sample_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF27EB5C-6A44-1647-9C9C-8D89B94BE2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C01A999-6FC7-C748-B53B-7906873DF3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="13220" windowHeight="17440" xr2:uid="{8F301045-3889-B046-A834-838FE8D7ECC6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8F301045-3889-B046-A834-838FE8D7ECC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ts_downloaded_maps" localSheetId="0">Sheet1!$A$1:$G$2</definedName>
+    <definedName name="ts_downloaded_maps" localSheetId="0">Sheet1!$A$1:$H$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{1A8BA088-EA5D-524F-9B8C-513BD9A4C2E4}" name="ts_downloaded_maps" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/rwood/LwM/MapReader/tests/sample_files/ts_downloaded_maps.csv" tab="0" delimiter="|">
+    <textPr sourceFile="/Users/rwood/LwM/MapReader/tests/sample_files/ts_downloaded_maps.csv" tab="0" delimiter="|">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>[[-4.20999993, 55.79000003], [-4.82999994, 55.79000003], [-4.82999993, 56.05000003], [-4.20999993, 56.05000003], [-4.20999993, 55.79000003]]</t>
+  </si>
+  <si>
+    <t>crs</t>
+  </si>
+  <si>
+    <t>EPSG:4326</t>
   </si>
 </sst>
 </file>
@@ -445,9 +451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97626FF2-F51C-564A-888B-27C23A291318}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -455,12 +463,13 @@
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -471,16 +480,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -493,13 +505,16 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
         <v>1898</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/tests/sample_files/ts_downloaded_maps.xlsx
+++ b/tests/sample_files/ts_downloaded_maps.xlsx
@@ -1,59 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwood/LwM/MapReader/tests/sample_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwood/LwM/mapreader/MapReader/tests/sample_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C01A999-6FC7-C748-B53B-7906873DF3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3772DEE-A539-7446-94F6-4C7AE4F04C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8F301045-3889-B046-A834-838FE8D7ECC6}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ts_downloaded_maps" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="ts_downloaded_maps" localSheetId="0">Sheet1!$A$1:$H$2</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{1A8BA088-EA5D-524F-9B8C-513BD9A4C2E4}" name="ts_downloaded_maps" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/rwood/LwM/MapReader/tests/sample_files/ts_downloaded_maps.csv" tab="0" delimiter="|">
-      <textFields count="7">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68,10 +31,13 @@
     <t>coordinates</t>
   </si>
   <si>
-    <t>pub_date</t>
-  </si>
-  <si>
-    <t>region</t>
+    <t>crs</t>
+  </si>
+  <si>
+    <t>published_date</t>
+  </si>
+  <si>
+    <t>grid_bb</t>
   </si>
   <si>
     <t>polygon</t>
@@ -83,26 +49,23 @@
     <t>https://maps.nls.uk/view/74488689</t>
   </si>
   <si>
-    <t>(-4.833984375, 55.80128097, -4.21875, 56.05976947910657)</t>
-  </si>
-  <si>
-    <t>Glasgow (30)</t>
-  </si>
-  <si>
-    <t>[[-4.20999993, 55.79000003], [-4.82999994, 55.79000003], [-4.82999993, 56.05000003], [-4.20999993, 56.05000003], [-4.20999993, 55.79000003]]</t>
-  </si>
-  <si>
-    <t>crs</t>
+    <t>(-4.833984375, 55.78892895389263, -4.19677734375, 56.05976947910656)</t>
   </si>
   <si>
     <t>EPSG:4326</t>
+  </si>
+  <si>
+    <t>[(14, 7972, 5097)x(14, 8000, 5118)]</t>
+  </si>
+  <si>
+    <t>POLYGON ((-4.20999993 55.79000003, -4.82999994 55.79000003, -4.82999993 56.05000003, -4.20999993 56.05000003, -4.20999993 55.79000003))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,16 +73,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -127,15 +390,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -148,10 +600,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ts_downloaded_maps" connectionId="1" xr16:uid="{8E4CA82B-483F-5C43-B6C7-9C819C331E13}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,24 +898,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97626FF2-F51C-564A-888B-27C23A291318}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -480,16 +916,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -497,28 +933,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1898</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/sample_files/ts_downloaded_maps.xlsx
+++ b/tests/sample_files/ts_downloaded_maps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwood/LwM/mapreader/MapReader/tests/sample_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3772DEE-A539-7446-94F6-4C7AE4F04C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFDFB37-83AD-384A-BE1A-ADC806E283AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ts_downloaded_maps" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -40,9 +40,6 @@
     <t>grid_bb</t>
   </si>
   <si>
-    <t>polygon</t>
-  </si>
-  <si>
     <t>cropped_74488689.png</t>
   </si>
   <si>
@@ -56,15 +53,12 @@
   </si>
   <si>
     <t>[(14, 7972, 5097)x(14, 8000, 5118)]</t>
-  </si>
-  <si>
-    <t>POLYGON ((-4.20999993 55.79000003, -4.82999994 55.79000003, -4.82999993 56.05000003, -4.20999993 56.05000003, -4.20999993 55.79000003))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -603,9 +597,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,7 +637,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -749,7 +743,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -891,21 +885,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -924,34 +920,28 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2">
         <v>1898</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
